--- a/medicine/Psychotrope/Friuli_Aquileia_Chardonnay/Friuli_Aquileia_Chardonnay.xlsx
+++ b/medicine/Psychotrope/Friuli_Aquileia_Chardonnay/Friuli_Aquileia_Chardonnay.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Friuli Aquileia Chardonnay est un vin blanc italien de la région Frioul-Vénétie Julienne doté d'une appellation DOC depuis le 6 août 1988. Seuls ont droit à la DOC les vins blancs récoltés à l'intérieur de l'aire de production définie par le décret.
@@ -512,7 +524,9 @@
           <t>Aire de production</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les vignobles autorisés se situent en province d'Udine dans les communes de Bagnaria Arsa, Cervignano del Friuli, Aquileia, Fiumicello, Villa Vicentina, Ruda, Campolongo Tapogliano, Aiello del Friuli, Visco et San Vito al Torre ainsi qu'en partie dans les communes de Santa Maria la Longa, Palmanova, Terzo d'Aquileia, Chiopris-Viscone, Trivignano Udinese et Gonars.
 Le Friuli Aquileia Chardonnay répond à un cahier des charges moins exigeant que le Friuli Aquileia Chardonnay superiore
@@ -545,7 +559,9 @@
           <t>Caractéristiques organoleptiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">couleur : blanc paille avec des reflets verdâtre
 odeur: caractéristique, légèrement parfumé,
@@ -579,7 +595,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Province, saison, volume en hectolitres :
 Udine (1990/91) 922,39
